--- a/EoI_Process/Demo/Outputs/OUTPUTS_EoI_Demo_B3/EoI_Demo_B3_formatted.xlsx
+++ b/EoI_Process/Demo/Outputs/OUTPUTS_EoI_Demo_B3/EoI_Demo_B3_formatted.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="333">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">Email.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Please.choose.which.option.best.describes.what.sort.of.company.or.organisation.is.seeking.support.</t>
+    <t xml:space="preserve">Please.choose.which.option.best.describes.what.sort.of.company.or.organisation.is.seeking.support.Definitions...AI.adopter..The.process.by.which.a.company.or.organisation.uses.or.integrates.an.AI.technology.into.its.products..services.or.operations...AI.ecosystem..The.complex.network.of.actors.and.processes.that.enable.the.use.and.supply.of.AI.throughout.the.AI.lifecycle..including.supply.chains..markets.and.governance.mechanisms..</t>
   </si>
   <si>
     <t xml:space="preserve">Agriculture.and.food.processing</t>
@@ -880,7 +880,7 @@
     <t xml:space="preserve">Email address</t>
   </si>
   <si>
-    <t xml:space="preserve">Organisation Stage</t>
+    <t xml:space="preserve">Please choose which option best describes what sort of company or organisation is seeking support Definitions, AI adopter,The process by which a company or organisation uses or integrates an AI technology into its products,services or operations, AI ecosystem,The complex network of actors and processes that enable the use and supply of AI throughout the AI lifecycle,including supply chains,markets and governance mechanisms,</t>
   </si>
   <si>
     <t xml:space="preserve">SECTOR: Agriculture &amp; food processing</t>
@@ -995,22 +995,6 @@
   </si>
   <si>
     <t xml:space="preserve">Consent boxes ticked for all companies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-[Blank] or [NA] or [N/A] found in [EoI_Demo_B1.csv] on column [Companies.House.Registration.no.]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-[Blank] or [NA] or [N/A] found in [EoI_Demo_B2.csv] on column [Companies.House.Registration.no.]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Duplicate found for [EoI_Demo_B1.csv and EoI_Demo_B2.csv] on column [Companies.House.Registration.no.]: LT287564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Duplicate found for [EoI_Demo_B1.csv and EoI_Demo_B2.csv] on column [Companies.House.Registration.no.]: CE911195</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1023,10 +1007,6 @@
   <si>
     <t xml:space="preserve">
 [Blank] or [NA] or [N/A] found in [EoI_Demo_B3.csv] on column [Website]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Duplicate found for [EoI_Demo_B1.csv and EoI_Demo_B2.csv] on column [Website]: www.bmxgtx.com</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -5371,31 +5351,6 @@
         <v>332</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>337</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
